--- a/biology/Histoire de la zoologie et de la botanique/Édouard_Chevreux/Édouard_Chevreux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Édouard_Chevreux/Édouard_Chevreux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Chevreux</t>
+          <t>Édouard_Chevreux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Chevreux est un carcinologiste français, né le 10 novembre 1846 à Paris et mort le 10 janvier 1931 à Annaba (Algérie).
 C’est un spécialiste des amphipodes. Il explore à bord de La Mélita les côtes des îles Canaries et du Sénégal en 1890. Il préside la Société zoologique de France en 1918.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Chevreux</t>
+          <t>Édouard_Chevreux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Bemon</t>
         </is>
